--- a/data/pca/factorExposure/factorExposure_2018-12-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +729,118 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.07824180569983316</v>
+        <v>-0.05204045960809102</v>
       </c>
       <c r="C2">
-        <v>0.04962458550582791</v>
+        <v>-0.02545477683238932</v>
       </c>
       <c r="D2">
-        <v>-0.06651921591093403</v>
+        <v>-0.02186506869948027</v>
       </c>
       <c r="E2">
-        <v>-0.001472916413964412</v>
+        <v>0.03352409668177155</v>
       </c>
       <c r="F2">
-        <v>0.1154355628047997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1106444441495152</v>
+      </c>
+      <c r="G2">
+        <v>0.0863329386200469</v>
+      </c>
+      <c r="H2">
+        <v>0.01559130269388759</v>
+      </c>
+      <c r="I2">
+        <v>0.04552623578825143</v>
+      </c>
+      <c r="J2">
+        <v>-0.1122863162260665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.1790689848327007</v>
+        <v>-0.1331224414655385</v>
       </c>
       <c r="C3">
-        <v>-0.04160864031632185</v>
+        <v>-0.06692856455082606</v>
       </c>
       <c r="D3">
-        <v>-0.1366987427969843</v>
+        <v>-0.01123144205072983</v>
       </c>
       <c r="E3">
-        <v>-0.05743185359252861</v>
+        <v>-0.02657761878096918</v>
       </c>
       <c r="F3">
-        <v>0.3746399458379011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3636827022979441</v>
+      </c>
+      <c r="G3">
+        <v>0.2142165663441973</v>
+      </c>
+      <c r="H3">
+        <v>-0.1363399884000296</v>
+      </c>
+      <c r="I3">
+        <v>0.2444209796861811</v>
+      </c>
+      <c r="J3">
+        <v>-0.3444536189016632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.07122168802573915</v>
+        <v>-0.05769022550802586</v>
       </c>
       <c r="C4">
-        <v>0.01248726286315993</v>
+        <v>-0.04489592600540918</v>
       </c>
       <c r="D4">
-        <v>-0.05863098015804702</v>
+        <v>0.007853194689151967</v>
       </c>
       <c r="E4">
-        <v>-0.0519890356036859</v>
+        <v>0.04091175013491728</v>
       </c>
       <c r="F4">
-        <v>0.05828855367486865</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06993486656793063</v>
+      </c>
+      <c r="G4">
+        <v>0.02988408870527642</v>
+      </c>
+      <c r="H4">
+        <v>0.01196021710688212</v>
+      </c>
+      <c r="I4">
+        <v>0.04964138286935356</v>
+      </c>
+      <c r="J4">
+        <v>-0.06144767173447279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +857,310 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.002487140047081466</v>
+        <v>-0.02794220514501258</v>
       </c>
       <c r="C6">
-        <v>-0.0006725352997043704</v>
+        <v>-0.01730003398535752</v>
       </c>
       <c r="D6">
-        <v>0.000476698701081702</v>
+        <v>0.0006912777770742699</v>
       </c>
       <c r="E6">
-        <v>0.003803331198643951</v>
+        <v>0.009456151216944562</v>
       </c>
       <c r="F6">
-        <v>0.000611431045675979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01497056817121194</v>
+      </c>
+      <c r="G6">
+        <v>-0.03313744628157945</v>
+      </c>
+      <c r="H6">
+        <v>0.002300185643154531</v>
+      </c>
+      <c r="I6">
+        <v>0.001596166830111128</v>
+      </c>
+      <c r="J6">
+        <v>-0.01450566003658742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.03517802963715735</v>
+        <v>-0.03037807343848934</v>
       </c>
       <c r="C7">
-        <v>0.01660135924223253</v>
+        <v>-0.01710644501552512</v>
       </c>
       <c r="D7">
-        <v>-0.04167506507926511</v>
+        <v>0.03215655274776229</v>
       </c>
       <c r="E7">
-        <v>-0.005957540699646277</v>
+        <v>0.02359143733372172</v>
       </c>
       <c r="F7">
-        <v>0.08215083357342386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05121154155305756</v>
+      </c>
+      <c r="G7">
+        <v>0.03045977805825751</v>
+      </c>
+      <c r="H7">
+        <v>-0.03182823618211107</v>
+      </c>
+      <c r="I7">
+        <v>0.02214056609991187</v>
+      </c>
+      <c r="J7">
+        <v>-0.05197519357657016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03552539094165276</v>
+        <v>-0.01406237288059854</v>
       </c>
       <c r="C8">
-        <v>-0.01066285640125567</v>
+        <v>-0.04187285732760818</v>
       </c>
       <c r="D8">
-        <v>-0.04629312087623697</v>
+        <v>0.005699615302334852</v>
       </c>
       <c r="E8">
-        <v>-0.04551966586174428</v>
+        <v>0.01452016816638694</v>
       </c>
       <c r="F8">
-        <v>0.075563515607176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.06776295052834176</v>
+      </c>
+      <c r="G8">
+        <v>0.05127936966142594</v>
+      </c>
+      <c r="H8">
+        <v>-0.007621345747694587</v>
+      </c>
+      <c r="I8">
+        <v>0.04723671586306401</v>
+      </c>
+      <c r="J8">
+        <v>-0.05940814320874037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0581491644393754</v>
+        <v>-0.04872393116815059</v>
       </c>
       <c r="C9">
-        <v>0.01649120769597499</v>
+        <v>-0.03606558396938563</v>
       </c>
       <c r="D9">
-        <v>-0.0447826807798207</v>
+        <v>0.01159089961935014</v>
       </c>
       <c r="E9">
-        <v>-0.06190387839845614</v>
+        <v>0.03283209192394457</v>
       </c>
       <c r="F9">
-        <v>0.05310727213958327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07578437269840936</v>
+      </c>
+      <c r="G9">
+        <v>0.0344430610856564</v>
+      </c>
+      <c r="H9">
+        <v>0.01580159303211405</v>
+      </c>
+      <c r="I9">
+        <v>0.04070206593358913</v>
+      </c>
+      <c r="J9">
+        <v>-0.04020489288299197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.03780812205408629</v>
+        <v>-0.05852989127494049</v>
       </c>
       <c r="C10">
-        <v>0.08293352677749322</v>
+        <v>0.1613851542169005</v>
       </c>
       <c r="D10">
-        <v>0.1160642695782191</v>
+        <v>0.01101859707053359</v>
       </c>
       <c r="E10">
-        <v>0.07724123823733164</v>
+        <v>-0.04135101927225908</v>
       </c>
       <c r="F10">
-        <v>0.04836846948942313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04345750047900677</v>
+      </c>
+      <c r="G10">
+        <v>0.05783836169674118</v>
+      </c>
+      <c r="H10">
+        <v>0.02503153280993798</v>
+      </c>
+      <c r="I10">
+        <v>0.002913821043291531</v>
+      </c>
+      <c r="J10">
+        <v>-0.01729343259253169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.04794282156251861</v>
+        <v>-0.04095670771805991</v>
       </c>
       <c r="C11">
-        <v>-0.003097886995604671</v>
+        <v>-0.03553070112488203</v>
       </c>
       <c r="D11">
-        <v>-0.02861418388882254</v>
+        <v>-0.01038885286988118</v>
       </c>
       <c r="E11">
-        <v>-0.007450483630318852</v>
+        <v>0.01047344886353999</v>
       </c>
       <c r="F11">
-        <v>0.05044618440455612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03901623009026817</v>
+      </c>
+      <c r="G11">
+        <v>0.006820970456942062</v>
+      </c>
+      <c r="H11">
+        <v>0.01239886618537525</v>
+      </c>
+      <c r="I11">
+        <v>0.009993751098171244</v>
+      </c>
+      <c r="J11">
+        <v>-0.0466094832774263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04042214211500067</v>
+        <v>-0.03866590530541581</v>
       </c>
       <c r="C12">
-        <v>-0.003295358412474087</v>
+        <v>-0.03446329036426155</v>
       </c>
       <c r="D12">
-        <v>-0.02509886661104109</v>
+        <v>0.001905744416177258</v>
       </c>
       <c r="E12">
-        <v>-0.02688016971703983</v>
+        <v>0.01367729502555394</v>
       </c>
       <c r="F12">
-        <v>0.04148688109545658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01807492179808734</v>
+      </c>
+      <c r="G12">
+        <v>0.0004073565762347971</v>
+      </c>
+      <c r="H12">
+        <v>-0.002177835233352028</v>
+      </c>
+      <c r="I12">
+        <v>0.0196296898179173</v>
+      </c>
+      <c r="J12">
+        <v>-0.02940117062708313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.04495789335345534</v>
+        <v>-0.03512921251305254</v>
       </c>
       <c r="C13">
-        <v>0.009528585026993604</v>
+        <v>-0.02096284892347091</v>
       </c>
       <c r="D13">
-        <v>-0.04689900589833271</v>
+        <v>-0.01988770764327339</v>
       </c>
       <c r="E13">
-        <v>0.01194983423503454</v>
+        <v>0.008920424419482391</v>
       </c>
       <c r="F13">
-        <v>0.1084451329989878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09147476460353318</v>
+      </c>
+      <c r="G13">
+        <v>0.0208539566863751</v>
+      </c>
+      <c r="H13">
+        <v>-0.01088150274187806</v>
+      </c>
+      <c r="I13">
+        <v>0.07826122061010925</v>
+      </c>
+      <c r="J13">
+        <v>-0.07129518169885241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.02457341223813441</v>
+        <v>-0.02060804795572951</v>
       </c>
       <c r="C14">
-        <v>0.01471646885776211</v>
+        <v>-0.01704616748459168</v>
       </c>
       <c r="D14">
-        <v>-0.04334857190453649</v>
+        <v>0.00279198273501818</v>
       </c>
       <c r="E14">
-        <v>-0.01982399164531795</v>
+        <v>0.02914777130758586</v>
       </c>
       <c r="F14">
-        <v>0.03541898412948532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03763873396854438</v>
+      </c>
+      <c r="G14">
+        <v>0.05276240692420615</v>
+      </c>
+      <c r="H14">
+        <v>-0.0243086466664611</v>
+      </c>
+      <c r="I14">
+        <v>0.02922597362853421</v>
+      </c>
+      <c r="J14">
+        <v>-0.02097110364621779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1177,54 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04187221000077715</v>
+        <v>-0.036460252320961</v>
       </c>
       <c r="C16">
-        <v>-0.00369379313369015</v>
+        <v>-0.03470484711197291</v>
       </c>
       <c r="D16">
-        <v>-0.02849512358228828</v>
+        <v>-0.004771272594885212</v>
       </c>
       <c r="E16">
-        <v>-0.0134413246798004</v>
+        <v>0.01265779452912783</v>
       </c>
       <c r="F16">
-        <v>0.03735408715076023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03406163922837446</v>
+      </c>
+      <c r="G16">
+        <v>0.006991661752271705</v>
+      </c>
+      <c r="H16">
+        <v>0.003401079467550455</v>
+      </c>
+      <c r="I16">
+        <v>0.009372800617141049</v>
+      </c>
+      <c r="J16">
+        <v>-0.04706934298080444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1273,118 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05682254865892721</v>
+        <v>-0.04381777918591763</v>
       </c>
       <c r="C19">
-        <v>-0.0160797534699387</v>
+        <v>-0.03946904788413802</v>
       </c>
       <c r="D19">
-        <v>-0.04195334708069037</v>
+        <v>-0.00998730685075506</v>
       </c>
       <c r="E19">
-        <v>-0.008029151815649069</v>
+        <v>0.01145236852794532</v>
       </c>
       <c r="F19">
-        <v>0.09265476079461146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.08733123912317609</v>
+      </c>
+      <c r="G19">
+        <v>0.04772737845638713</v>
+      </c>
+      <c r="H19">
+        <v>-0.01397905375575572</v>
+      </c>
+      <c r="I19">
+        <v>0.03717601866756241</v>
+      </c>
+      <c r="J19">
+        <v>-0.08440537836713989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.01554586806107947</v>
+        <v>-0.01153065210736135</v>
       </c>
       <c r="C20">
-        <v>0.006944273467312643</v>
+        <v>-0.01791173418482308</v>
       </c>
       <c r="D20">
-        <v>-0.04014140578789589</v>
+        <v>0.00174091707902359</v>
       </c>
       <c r="E20">
-        <v>-0.03228762433645829</v>
+        <v>0.01607476827573643</v>
       </c>
       <c r="F20">
-        <v>0.0723166028384066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.05858018926122105</v>
+      </c>
+      <c r="G20">
+        <v>0.04338768057101887</v>
+      </c>
+      <c r="H20">
+        <v>-0.03789821756732031</v>
+      </c>
+      <c r="I20">
+        <v>0.04411989055066855</v>
+      </c>
+      <c r="J20">
+        <v>-0.07751515740730182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.01997045651712688</v>
+        <v>-0.02709501434919969</v>
       </c>
       <c r="C21">
-        <v>-0.01191213209712401</v>
+        <v>-0.02371779063711839</v>
       </c>
       <c r="D21">
-        <v>-0.03515428775233459</v>
+        <v>0.008081997808473006</v>
       </c>
       <c r="E21">
-        <v>-0.007375265755585277</v>
+        <v>0.007100352429184703</v>
       </c>
       <c r="F21">
-        <v>0.08812551027871142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.06676631997960142</v>
+      </c>
+      <c r="G21">
+        <v>0.03941076560725036</v>
+      </c>
+      <c r="H21">
+        <v>0.02683037301971056</v>
+      </c>
+      <c r="I21">
+        <v>0.0295435158692757</v>
+      </c>
+      <c r="J21">
+        <v>-0.01350732777728053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1401,22 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1433,374 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.03783573116550303</v>
+        <v>-0.03298893985263885</v>
       </c>
       <c r="C24">
-        <v>-0.00505696361036786</v>
+        <v>-0.03097660062700753</v>
       </c>
       <c r="D24">
-        <v>-0.02569011135433715</v>
+        <v>-0.003623209254832944</v>
       </c>
       <c r="E24">
-        <v>-0.01505810622924278</v>
+        <v>0.0100937967305276</v>
       </c>
       <c r="F24">
-        <v>0.04930757417753289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03742806558446257</v>
+      </c>
+      <c r="G24">
+        <v>0.004777722236554639</v>
+      </c>
+      <c r="H24">
+        <v>0.006178530372978436</v>
+      </c>
+      <c r="I24">
+        <v>0.01066192254009487</v>
+      </c>
+      <c r="J24">
+        <v>-0.0483012666546024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04108859522796218</v>
+        <v>-0.04179914815436287</v>
       </c>
       <c r="C25">
-        <v>-4.344243512232166e-05</v>
+        <v>-0.03023838182310865</v>
       </c>
       <c r="D25">
-        <v>-0.02834289054730705</v>
+        <v>-0.004885848377256924</v>
       </c>
       <c r="E25">
-        <v>-0.01815196854747265</v>
+        <v>0.01219667252311231</v>
       </c>
       <c r="F25">
-        <v>0.05205165249221011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04782359911267711</v>
+      </c>
+      <c r="G25">
+        <v>-0.002871792830740765</v>
+      </c>
+      <c r="H25">
+        <v>0.01006302795592255</v>
+      </c>
+      <c r="I25">
+        <v>0.02252271898629271</v>
+      </c>
+      <c r="J25">
+        <v>-0.03754965950909143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01886024241989182</v>
+        <v>-0.01168437622289823</v>
       </c>
       <c r="C26">
-        <v>-0.007466858210331774</v>
+        <v>-0.02356886027701102</v>
       </c>
       <c r="D26">
-        <v>-0.05254381334729332</v>
+        <v>-0.008621385015146052</v>
       </c>
       <c r="E26">
-        <v>-0.0004968638595377451</v>
+        <v>0.003179354718836273</v>
       </c>
       <c r="F26">
-        <v>0.04139410858948776</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04355580203333819</v>
+      </c>
+      <c r="G26">
+        <v>0.02369508353470579</v>
+      </c>
+      <c r="H26">
+        <v>-0.02022348034888829</v>
+      </c>
+      <c r="I26">
+        <v>0.03905051566080121</v>
+      </c>
+      <c r="J26">
+        <v>-0.03633298638422996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1027904729602785</v>
+        <v>-0.05956841582146419</v>
       </c>
       <c r="C27">
-        <v>0.02704859093132499</v>
+        <v>-0.01895260513459089</v>
       </c>
       <c r="D27">
-        <v>-0.04041227501251157</v>
+        <v>-0.0004983261923431541</v>
       </c>
       <c r="E27">
-        <v>-0.0392107537324845</v>
+        <v>0.02475803480440223</v>
       </c>
       <c r="F27">
-        <v>0.05312717278213477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04177332509900807</v>
+      </c>
+      <c r="G27">
+        <v>0.03314385572491035</v>
+      </c>
+      <c r="H27">
+        <v>-0.006940336934683934</v>
+      </c>
+      <c r="I27">
+        <v>0.0269584737752586</v>
+      </c>
+      <c r="J27">
+        <v>-0.01946606757070218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.05543078028133046</v>
+        <v>-0.08687760580203732</v>
       </c>
       <c r="C28">
-        <v>0.1091860399249004</v>
+        <v>0.2430601178145232</v>
       </c>
       <c r="D28">
-        <v>0.19150485288465</v>
+        <v>0.02347270098356251</v>
       </c>
       <c r="E28">
-        <v>0.107103606053265</v>
+        <v>-0.061603415110616</v>
       </c>
       <c r="F28">
-        <v>0.01204125438748973</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01832312530126967</v>
+      </c>
+      <c r="G28">
+        <v>0.05861368296339784</v>
+      </c>
+      <c r="H28">
+        <v>0.0002506417362307347</v>
+      </c>
+      <c r="I28">
+        <v>0.03206162185016044</v>
+      </c>
+      <c r="J28">
+        <v>-0.02067703529011249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02545792837888405</v>
+        <v>-0.02103101951985081</v>
       </c>
       <c r="C29">
-        <v>0.007425863113932195</v>
+        <v>-0.01940952401218447</v>
       </c>
       <c r="D29">
-        <v>-0.04415495430726515</v>
+        <v>0.004792165103403591</v>
       </c>
       <c r="E29">
-        <v>-0.03168581741260123</v>
+        <v>0.03005049503869371</v>
       </c>
       <c r="F29">
-        <v>0.01974821635017067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03154792664068169</v>
+      </c>
+      <c r="G29">
+        <v>0.05040493660087313</v>
+      </c>
+      <c r="H29">
+        <v>-0.02180319909255903</v>
+      </c>
+      <c r="I29">
+        <v>0.02938612204015565</v>
+      </c>
+      <c r="J29">
+        <v>-0.004136260736331626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1017643100575756</v>
+        <v>-0.08245378443269959</v>
       </c>
       <c r="C30">
-        <v>0.03918577206079753</v>
+        <v>-0.04825081118235029</v>
       </c>
       <c r="D30">
-        <v>-0.07039971840977431</v>
+        <v>-0.04800767705929564</v>
       </c>
       <c r="E30">
-        <v>-0.02630538119507165</v>
+        <v>0.04541829577296696</v>
       </c>
       <c r="F30">
-        <v>0.1064031279618432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1010980613890434</v>
+      </c>
+      <c r="G30">
+        <v>0.01271046787350711</v>
+      </c>
+      <c r="H30">
+        <v>-0.01380405787641282</v>
+      </c>
+      <c r="I30">
+        <v>0.006726150186234242</v>
+      </c>
+      <c r="J30">
+        <v>-0.04674066837636336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05755610252646658</v>
+        <v>-0.05434948413145025</v>
       </c>
       <c r="C31">
-        <v>0.01314913668894319</v>
+        <v>-0.01570311346170602</v>
       </c>
       <c r="D31">
-        <v>-0.03561349495689441</v>
+        <v>-0.0107528126742351</v>
       </c>
       <c r="E31">
-        <v>0.02544300409211825</v>
+        <v>0.02185508374301111</v>
       </c>
       <c r="F31">
-        <v>-0.01924909117824903</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001519967952218153</v>
+      </c>
+      <c r="G31">
+        <v>0.06733072670203362</v>
+      </c>
+      <c r="H31">
+        <v>0.01088541788288668</v>
+      </c>
+      <c r="I31">
+        <v>0.01252532066763325</v>
+      </c>
+      <c r="J31">
+        <v>-0.01799368679157005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.0500371877086969</v>
+        <v>-0.03022990506913421</v>
       </c>
       <c r="C32">
-        <v>0.003758028883008634</v>
+        <v>-0.03647663639966643</v>
       </c>
       <c r="D32">
-        <v>-0.05342318919914189</v>
+        <v>0.009378894345834754</v>
       </c>
       <c r="E32">
-        <v>-0.03765774812815923</v>
+        <v>0.04371062153169573</v>
       </c>
       <c r="F32">
-        <v>0.08138899280643064</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08722018947045038</v>
+      </c>
+      <c r="G32">
+        <v>0.003962791481096255</v>
+      </c>
+      <c r="H32">
+        <v>-0.005453457228285904</v>
+      </c>
+      <c r="I32">
+        <v>0.02142646493915556</v>
+      </c>
+      <c r="J32">
+        <v>-0.07175798924354715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.04792559591843046</v>
+        <v>-0.0427252104672706</v>
       </c>
       <c r="C33">
-        <v>-0.01217701291884583</v>
+        <v>-0.04829356879740099</v>
       </c>
       <c r="D33">
-        <v>-0.07423045446278903</v>
+        <v>-0.02602653319815795</v>
       </c>
       <c r="E33">
-        <v>-0.01687871193782958</v>
+        <v>0.009290928486093966</v>
       </c>
       <c r="F33">
-        <v>0.07100140525876651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.06964999711942521</v>
+      </c>
+      <c r="G33">
+        <v>0.05341102635084836</v>
+      </c>
+      <c r="H33">
+        <v>0.001797726674532521</v>
+      </c>
+      <c r="I33">
+        <v>0.02911886949685469</v>
+      </c>
+      <c r="J33">
+        <v>-0.04845109876127083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.0386548233619596</v>
+        <v>-0.03639608313452859</v>
       </c>
       <c r="C34">
-        <v>0.004051673145279327</v>
+        <v>-0.03450820401555397</v>
       </c>
       <c r="D34">
-        <v>-0.03256826255687453</v>
+        <v>0.00087214652351717</v>
       </c>
       <c r="E34">
-        <v>-0.01897088069275038</v>
+        <v>0.02214222242751461</v>
       </c>
       <c r="F34">
-        <v>0.04184686870887445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03863110761287261</v>
+      </c>
+      <c r="G34">
+        <v>0.01061575591624419</v>
+      </c>
+      <c r="H34">
+        <v>0.009263177673007753</v>
+      </c>
+      <c r="I34">
+        <v>0.00614304489981745</v>
+      </c>
+      <c r="J34">
+        <v>-0.04567682088574745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1817,54 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01389529049567696</v>
+        <v>-0.01570592611491259</v>
       </c>
       <c r="C36">
-        <v>0.012223585874953</v>
+        <v>-0.001721955547002329</v>
       </c>
       <c r="D36">
-        <v>-0.01132818182492394</v>
+        <v>0.002996117356631921</v>
       </c>
       <c r="E36">
-        <v>-0.01053898792935757</v>
+        <v>0.01070840888940322</v>
       </c>
       <c r="F36">
-        <v>0.02304955625917074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02508775377525229</v>
+      </c>
+      <c r="G36">
+        <v>0.03671419096931865</v>
+      </c>
+      <c r="H36">
+        <v>-0.001979452502921334</v>
+      </c>
+      <c r="I36">
+        <v>0.01509822857954241</v>
+      </c>
+      <c r="J36">
+        <v>0.001949009586698712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1881,246 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.02073087384916099</v>
+        <v>-0.02463188170094651</v>
       </c>
       <c r="C38">
-        <v>0.008404699072298313</v>
+        <v>-0.003798904955578587</v>
       </c>
       <c r="D38">
-        <v>0.01163160369801467</v>
+        <v>0.004531687387027857</v>
       </c>
       <c r="E38">
-        <v>-0.005898220148192621</v>
+        <v>0.004327381525220759</v>
       </c>
       <c r="F38">
-        <v>0.01204196947930556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0374094311273464</v>
+      </c>
+      <c r="G38">
+        <v>0.04816116640880717</v>
+      </c>
+      <c r="H38">
+        <v>0.02323797394674538</v>
+      </c>
+      <c r="I38">
+        <v>-0.01588837442124088</v>
+      </c>
+      <c r="J38">
+        <v>-0.01246025541643968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.05744239377374678</v>
+        <v>-0.04369456188878904</v>
       </c>
       <c r="C39">
-        <v>0.00204862079940913</v>
+        <v>-0.05184146368330654</v>
       </c>
       <c r="D39">
-        <v>-0.04575225121304248</v>
+        <v>-0.01241467678687217</v>
       </c>
       <c r="E39">
-        <v>-0.006382344358199576</v>
+        <v>0.02363245497069592</v>
       </c>
       <c r="F39">
-        <v>0.04227333590694859</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05967789468491712</v>
+      </c>
+      <c r="G39">
+        <v>0.002357127209922613</v>
+      </c>
+      <c r="H39">
+        <v>0.01953355691240235</v>
+      </c>
+      <c r="I39">
+        <v>0.01414299573524315</v>
+      </c>
+      <c r="J39">
+        <v>-0.03512962442402949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.05221286774288522</v>
+        <v>-0.0442231717742733</v>
       </c>
       <c r="C40">
-        <v>0.02203672583248707</v>
+        <v>-0.03569195101164032</v>
       </c>
       <c r="D40">
-        <v>-0.07282229825316007</v>
+        <v>-0.02809471910734983</v>
       </c>
       <c r="E40">
-        <v>0.009795318561694771</v>
+        <v>0.02817870752240214</v>
       </c>
       <c r="F40">
-        <v>0.08743871238916226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.07986822405740807</v>
+      </c>
+      <c r="G40">
+        <v>0.03156040467993941</v>
+      </c>
+      <c r="H40">
+        <v>-0.00484353725028842</v>
+      </c>
+      <c r="I40">
+        <v>0.06127653367267539</v>
+      </c>
+      <c r="J40">
+        <v>-0.1124680440565521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.008795040412798789</v>
+        <v>0.0003910335326907158</v>
       </c>
       <c r="C41">
-        <v>-0.001725049094765552</v>
+        <v>-0.002188733004377549</v>
       </c>
       <c r="D41">
-        <v>-0.02626332589764704</v>
+        <v>-0.0008479545996556622</v>
       </c>
       <c r="E41">
-        <v>-0.01125330166455423</v>
+        <v>0.007184693943740651</v>
       </c>
       <c r="F41">
-        <v>-0.0112503143568736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003432803058909725</v>
+      </c>
+      <c r="G41">
+        <v>0.05674875883910861</v>
+      </c>
+      <c r="H41">
+        <v>0.004146974620695239</v>
+      </c>
+      <c r="I41">
+        <v>0.01760793811547333</v>
+      </c>
+      <c r="J41">
+        <v>-0.001583473298696451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.298195439985902</v>
+        <v>-0.2220974531997746</v>
       </c>
       <c r="C42">
-        <v>-0.8788706742123003</v>
+        <v>-0.350949097729288</v>
       </c>
       <c r="D42">
-        <v>0.1851807387598324</v>
+        <v>-0.0722649947317812</v>
       </c>
       <c r="E42">
-        <v>0.265534481318542</v>
+        <v>-0.8732480591839653</v>
       </c>
       <c r="F42">
-        <v>-0.04745128455955635</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1754812593227947</v>
+      </c>
+      <c r="G42">
+        <v>0.009489186686820505</v>
+      </c>
+      <c r="H42">
+        <v>0.01541672150117739</v>
+      </c>
+      <c r="I42">
+        <v>-0.04024759681806372</v>
+      </c>
+      <c r="J42">
+        <v>-0.02809901755871466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007615249579608721</v>
+        <v>-0.0027083835115543</v>
       </c>
       <c r="C43">
-        <v>-5.984737141184108e-05</v>
+        <v>-0.002784589340789425</v>
       </c>
       <c r="D43">
-        <v>-0.02734370908082169</v>
+        <v>-0.004199193360348474</v>
       </c>
       <c r="E43">
-        <v>-0.005806703628901476</v>
+        <v>0.005342058358700866</v>
       </c>
       <c r="F43">
-        <v>0.01941528561175291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01454401665888995</v>
+      </c>
+      <c r="G43">
+        <v>0.03859180194106144</v>
+      </c>
+      <c r="H43">
+        <v>-0.009532703410363837</v>
+      </c>
+      <c r="I43">
+        <v>0.02468223532281394</v>
+      </c>
+      <c r="J43">
+        <v>-0.005230387995959008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.02639888129041082</v>
+        <v>-0.01835263741438271</v>
       </c>
       <c r="C44">
-        <v>-0.00456599630733619</v>
+        <v>-0.0315442581241204</v>
       </c>
       <c r="D44">
-        <v>-0.05969204933478248</v>
+        <v>-0.001951654846258302</v>
       </c>
       <c r="E44">
-        <v>-0.02054499452518972</v>
+        <v>0.007772969016815471</v>
       </c>
       <c r="F44">
-        <v>0.1080270145161921</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1101536201271644</v>
+      </c>
+      <c r="G44">
+        <v>0.09111584445403695</v>
+      </c>
+      <c r="H44">
+        <v>-0.01644595987448583</v>
+      </c>
+      <c r="I44">
+        <v>0.05746279051157036</v>
+      </c>
+      <c r="J44">
+        <v>-0.06080487474271214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2137,118 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02814956271754205</v>
+        <v>-0.02062098737709482</v>
       </c>
       <c r="C46">
-        <v>0.005549022042840071</v>
+        <v>-0.030134241643544</v>
       </c>
       <c r="D46">
-        <v>-0.05475693205626886</v>
+        <v>-0.008827140472951944</v>
       </c>
       <c r="E46">
-        <v>-0.01856927553626865</v>
+        <v>0.0339327041668859</v>
       </c>
       <c r="F46">
-        <v>0.01588994621015342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04519391307820089</v>
+      </c>
+      <c r="G46">
+        <v>0.05532457727594532</v>
+      </c>
+      <c r="H46">
+        <v>-0.02331063805077331</v>
+      </c>
+      <c r="I46">
+        <v>0.0272008232224881</v>
+      </c>
+      <c r="J46">
+        <v>-0.012937552823589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08304437910272014</v>
+        <v>-0.080612062369861</v>
       </c>
       <c r="C47">
-        <v>0.01661214444760053</v>
+        <v>-0.0261183685983565</v>
       </c>
       <c r="D47">
-        <v>-0.03977928170587042</v>
+        <v>-0.006518748701955414</v>
       </c>
       <c r="E47">
-        <v>-0.01804834650541672</v>
+        <v>0.03202805470762159</v>
       </c>
       <c r="F47">
-        <v>-0.02830757704894308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0243478432575976</v>
+      </c>
+      <c r="G47">
+        <v>0.06985885506205845</v>
+      </c>
+      <c r="H47">
+        <v>-0.01391540074888995</v>
+      </c>
+      <c r="I47">
+        <v>0.02356678638348532</v>
+      </c>
+      <c r="J47">
+        <v>-0.02908804482004237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01237809130626234</v>
+        <v>-0.01825358295635033</v>
       </c>
       <c r="C48">
-        <v>0.005528492968330615</v>
+        <v>-0.01201857799456644</v>
       </c>
       <c r="D48">
-        <v>-0.03189750728146292</v>
+        <v>-0.001007347622720689</v>
       </c>
       <c r="E48">
-        <v>-0.0133042519443724</v>
+        <v>0.01455964075861644</v>
       </c>
       <c r="F48">
-        <v>0.03362265329925945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02822509452559615</v>
+      </c>
+      <c r="G48">
+        <v>0.02898081050433356</v>
+      </c>
+      <c r="H48">
+        <v>-0.003878006283051364</v>
+      </c>
+      <c r="I48">
+        <v>0.01555075466170292</v>
+      </c>
+      <c r="J48">
+        <v>-0.01473509259127012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2265,86 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08165796477065783</v>
+        <v>-0.07947480531856883</v>
       </c>
       <c r="C50">
-        <v>0.0004407547109003866</v>
+        <v>-0.04265457475634096</v>
       </c>
       <c r="D50">
-        <v>-0.03809370943610818</v>
+        <v>0.004223307886318492</v>
       </c>
       <c r="E50">
-        <v>0.004377347970255698</v>
+        <v>0.02184710470070611</v>
       </c>
       <c r="F50">
-        <v>-0.009433824184802934</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.008360043735980781</v>
+      </c>
+      <c r="G50">
+        <v>0.05259682381292</v>
+      </c>
+      <c r="H50">
+        <v>-0.01994108372540999</v>
+      </c>
+      <c r="I50">
+        <v>-0.03066380624510153</v>
+      </c>
+      <c r="J50">
+        <v>-0.006015568694962628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03795184605633746</v>
+        <v>-0.0285423246738551</v>
       </c>
       <c r="C51">
-        <v>-0.003658517814151669</v>
+        <v>0.007799968221197062</v>
       </c>
       <c r="D51">
-        <v>-0.0173500663025192</v>
+        <v>-0.009934083092353985</v>
       </c>
       <c r="E51">
-        <v>0.03872778816242264</v>
+        <v>-0.0147715679848575</v>
       </c>
       <c r="F51">
-        <v>0.06884330764847313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08165810812108416</v>
+      </c>
+      <c r="G51">
+        <v>0.08479483383563099</v>
+      </c>
+      <c r="H51">
+        <v>-0.006726056924413421</v>
+      </c>
+      <c r="I51">
+        <v>0.04533909018417017</v>
+      </c>
+      <c r="J51">
+        <v>-0.03911420622487741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2361,310 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1149948097390754</v>
+        <v>-0.1078299112916781</v>
       </c>
       <c r="C53">
-        <v>0.01497265497031999</v>
+        <v>-0.05132922338454857</v>
       </c>
       <c r="D53">
-        <v>-0.07008396601890565</v>
+        <v>-0.01111638911869981</v>
       </c>
       <c r="E53">
-        <v>-0.01088540107358201</v>
+        <v>0.05458019620431083</v>
       </c>
       <c r="F53">
-        <v>-0.06828125344744984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05491567081596394</v>
+      </c>
+      <c r="G53">
+        <v>0.02408744388652147</v>
+      </c>
+      <c r="H53">
+        <v>-0.003259212350394452</v>
+      </c>
+      <c r="I53">
+        <v>0.02416323743236352</v>
+      </c>
+      <c r="J53">
+        <v>-0.01973423816689665</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02072766520079558</v>
+        <v>-0.02340197908046305</v>
       </c>
       <c r="C54">
-        <v>0.01887813389672976</v>
+        <v>-0.003220606896472738</v>
       </c>
       <c r="D54">
-        <v>-0.02596212090707072</v>
+        <v>0.003980233261255521</v>
       </c>
       <c r="E54">
-        <v>-0.01687580480464079</v>
+        <v>0.03027036089615091</v>
       </c>
       <c r="F54">
-        <v>0.03934358014616614</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03319974121854775</v>
+      </c>
+      <c r="G54">
+        <v>0.06147737159409374</v>
+      </c>
+      <c r="H54">
+        <v>-0.01086608838859222</v>
+      </c>
+      <c r="I54">
+        <v>0.0210740566768142</v>
+      </c>
+      <c r="J54">
+        <v>-0.001924482702669344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09754123972757567</v>
+        <v>-0.08881463913840353</v>
       </c>
       <c r="C55">
-        <v>0.01071912243765752</v>
+        <v>-0.0481847411924873</v>
       </c>
       <c r="D55">
-        <v>-0.02011802862586605</v>
+        <v>0.006735925627377274</v>
       </c>
       <c r="E55">
-        <v>-0.04282646639798697</v>
+        <v>0.04016390386543033</v>
       </c>
       <c r="F55">
-        <v>-0.02990834647357215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04292741587642984</v>
+      </c>
+      <c r="G55">
+        <v>0.02847721734765561</v>
+      </c>
+      <c r="H55">
+        <v>-0.02828405697179943</v>
+      </c>
+      <c r="I55">
+        <v>-0.02136221087637951</v>
+      </c>
+      <c r="J55">
+        <v>-0.0225626120768325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1532896437099548</v>
+        <v>-0.1515722365353429</v>
       </c>
       <c r="C56">
-        <v>0.06776812822936458</v>
+        <v>-0.04417857252661949</v>
       </c>
       <c r="D56">
-        <v>-0.05474571093703044</v>
+        <v>-0.008049355564922603</v>
       </c>
       <c r="E56">
-        <v>-0.03552566331133385</v>
+        <v>0.09214474765702264</v>
       </c>
       <c r="F56">
-        <v>-0.1167273450389119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09845198513010284</v>
+      </c>
+      <c r="G56">
+        <v>-0.03056618321301312</v>
+      </c>
+      <c r="H56">
+        <v>-0.01161938854313404</v>
+      </c>
+      <c r="I56">
+        <v>-0.002213702747785515</v>
+      </c>
+      <c r="J56">
+        <v>-0.01273637497810968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.06562281843713463</v>
+        <v>-0.05351466808810072</v>
       </c>
       <c r="C57">
-        <v>0.01527918804167551</v>
+        <v>-0.02605967298738817</v>
       </c>
       <c r="D57">
-        <v>-0.0457533848437444</v>
+        <v>-0.02158186443839819</v>
       </c>
       <c r="E57">
-        <v>0.01273894839755976</v>
+        <v>0.005756411998518753</v>
       </c>
       <c r="F57">
-        <v>0.06133188780768644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.05970756492676867</v>
+      </c>
+      <c r="G57">
+        <v>0.02581348218511238</v>
+      </c>
+      <c r="H57">
+        <v>0.00276084757525517</v>
+      </c>
+      <c r="I57">
+        <v>0.01933713261454349</v>
+      </c>
+      <c r="J57">
+        <v>-0.04168080112889927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.204184002922772</v>
+        <v>-0.1937379825867726</v>
       </c>
       <c r="C58">
-        <v>0.0159450443158571</v>
+        <v>-0.108210849474505</v>
       </c>
       <c r="D58">
-        <v>-0.1311666652485976</v>
+        <v>-0.1120228399534406</v>
       </c>
       <c r="E58">
-        <v>-0.01081258751916061</v>
+        <v>-0.007142957517432102</v>
       </c>
       <c r="F58">
-        <v>0.2617904410873186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3732669691542428</v>
+      </c>
+      <c r="G58">
+        <v>0.210061035362401</v>
+      </c>
+      <c r="H58">
+        <v>-0.4343363869488261</v>
+      </c>
+      <c r="I58">
+        <v>-0.2549994272366158</v>
+      </c>
+      <c r="J58">
+        <v>0.6542984843910757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.06194336253401905</v>
+        <v>-0.09352464178494653</v>
       </c>
       <c r="C59">
-        <v>0.1226433054832742</v>
+        <v>0.2146186701112821</v>
       </c>
       <c r="D59">
-        <v>0.1339100075460856</v>
+        <v>0.003608401903648054</v>
       </c>
       <c r="E59">
-        <v>0.06835346988992415</v>
+        <v>-0.02663558475391633</v>
       </c>
       <c r="F59">
-        <v>0.02536164186623586</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.04469424967387435</v>
+      </c>
+      <c r="G59">
+        <v>0.02052835853458298</v>
+      </c>
+      <c r="H59">
+        <v>-0.0003449215782235107</v>
+      </c>
+      <c r="I59">
+        <v>0.03920913667389669</v>
+      </c>
+      <c r="J59">
+        <v>0.01454287269998496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1813573322810937</v>
+        <v>-0.1982859705346412</v>
       </c>
       <c r="C60">
-        <v>0.0711519630096215</v>
+        <v>0.0317306611674025</v>
       </c>
       <c r="D60">
-        <v>-0.00164027652947856</v>
+        <v>-0.05597796853693282</v>
       </c>
       <c r="E60">
-        <v>0.08405481444442674</v>
+        <v>0.01638974822274191</v>
       </c>
       <c r="F60">
-        <v>0.153576071279811</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.2049540555830082</v>
+      </c>
+      <c r="G60">
+        <v>-0.2851598965384622</v>
+      </c>
+      <c r="H60">
+        <v>0.2018157068284553</v>
+      </c>
+      <c r="I60">
+        <v>-0.0105136488486701</v>
+      </c>
+      <c r="J60">
+        <v>-0.01292502151622795</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.0301915928277722</v>
+        <v>-0.0339327132378168</v>
       </c>
       <c r="C61">
-        <v>0.002576278798158193</v>
+        <v>-0.03385190883910084</v>
       </c>
       <c r="D61">
-        <v>-0.0192150735065365</v>
+        <v>-0.003311790141363863</v>
       </c>
       <c r="E61">
-        <v>-0.01604267509305314</v>
+        <v>0.01891717679164747</v>
       </c>
       <c r="F61">
-        <v>0.03789869515139414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03862738483075621</v>
+      </c>
+      <c r="G61">
+        <v>-0.00354031390718962</v>
+      </c>
+      <c r="H61">
+        <v>0.02123158522528635</v>
+      </c>
+      <c r="I61">
+        <v>-0.002682992608238741</v>
+      </c>
+      <c r="J61">
+        <v>-0.02351050885718474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2681,246 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.02933455031692878</v>
+        <v>-0.02472585771031243</v>
       </c>
       <c r="C63">
-        <v>0.01277076680058356</v>
+        <v>-0.02354716217328059</v>
       </c>
       <c r="D63">
-        <v>-0.04075004957925096</v>
+        <v>-0.004406911940352832</v>
       </c>
       <c r="E63">
-        <v>-0.01445741614206434</v>
+        <v>0.02033946619102625</v>
       </c>
       <c r="F63">
-        <v>0.04929736012146863</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03001956409004402</v>
+      </c>
+      <c r="G63">
+        <v>0.03673638599468779</v>
+      </c>
+      <c r="H63">
+        <v>-0.02954623262543884</v>
+      </c>
+      <c r="I63">
+        <v>0.01826897673305001</v>
+      </c>
+      <c r="J63">
+        <v>-0.03378963694229692</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.04902840395263714</v>
+        <v>-0.05045748267654931</v>
       </c>
       <c r="C64">
-        <v>0.002093607381763853</v>
+        <v>-0.04177843851007708</v>
       </c>
       <c r="D64">
-        <v>-0.04746589128174764</v>
+        <v>0.005605757197056551</v>
       </c>
       <c r="E64">
-        <v>-0.05682337814872673</v>
+        <v>0.02648060901427884</v>
       </c>
       <c r="F64">
-        <v>0.04953789551085493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04266907057187833</v>
+      </c>
+      <c r="G64">
+        <v>0.04174816339714204</v>
+      </c>
+      <c r="H64">
+        <v>0.01866069495321641</v>
+      </c>
+      <c r="I64">
+        <v>0.06668468201713365</v>
+      </c>
+      <c r="J64">
+        <v>-0.05069804262222777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.002574861282938492</v>
+        <v>-0.03151653019694389</v>
       </c>
       <c r="C65">
-        <v>-0.001705588570444348</v>
+        <v>-0.01758942934485018</v>
       </c>
       <c r="D65">
-        <v>0.001270637199300325</v>
+        <v>0.000628201349507297</v>
       </c>
       <c r="E65">
-        <v>0.004146026897351543</v>
+        <v>0.009638005675238141</v>
       </c>
       <c r="F65">
-        <v>0.0008347470595027403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01228904576337876</v>
+      </c>
+      <c r="G65">
+        <v>-0.03652339960102289</v>
+      </c>
+      <c r="H65">
+        <v>0.006181250162346291</v>
+      </c>
+      <c r="I65">
+        <v>0.003540933598727435</v>
+      </c>
+      <c r="J65">
+        <v>-0.01376914054708511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.05469151125550554</v>
+        <v>-0.05190004761449817</v>
       </c>
       <c r="C66">
-        <v>0.01475939251230716</v>
+        <v>-0.05800076208465645</v>
       </c>
       <c r="D66">
-        <v>-0.06163322897132281</v>
+        <v>-0.0208834391924447</v>
       </c>
       <c r="E66">
-        <v>-0.02854448961261683</v>
+        <v>0.04823091957513505</v>
       </c>
       <c r="F66">
-        <v>0.08345442539574911</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07262587332817191</v>
+      </c>
+      <c r="G66">
+        <v>-0.0160690725573948</v>
+      </c>
+      <c r="H66">
+        <v>0.01346504885661815</v>
+      </c>
+      <c r="I66">
+        <v>0.02039006668817533</v>
+      </c>
+      <c r="J66">
+        <v>-0.07612805654679962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.03844369994486885</v>
+        <v>-0.04263213222292402</v>
       </c>
       <c r="C67">
-        <v>0.01763686647446757</v>
+        <v>0.006893714859796273</v>
       </c>
       <c r="D67">
-        <v>0.02294186936420782</v>
+        <v>0.001297775431328502</v>
       </c>
       <c r="E67">
-        <v>0.007860739957446456</v>
+        <v>0.006423086738324823</v>
       </c>
       <c r="F67">
-        <v>0.0191219482971885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03111447855035537</v>
+      </c>
+      <c r="G67">
+        <v>0.03505683185144361</v>
+      </c>
+      <c r="H67">
+        <v>0.04655546954604613</v>
+      </c>
+      <c r="I67">
+        <v>-0.01213376354190246</v>
+      </c>
+      <c r="J67">
+        <v>-0.008607025890725952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.07201659938944451</v>
+        <v>-0.09140971120898865</v>
       </c>
       <c r="C68">
-        <v>0.1144358626353266</v>
+        <v>0.2350410988487208</v>
       </c>
       <c r="D68">
-        <v>0.1900625964618216</v>
+        <v>0.01090225035594869</v>
       </c>
       <c r="E68">
-        <v>0.1009882345297696</v>
+        <v>-0.05503373790972067</v>
       </c>
       <c r="F68">
-        <v>-0.01494670347324941</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.003151571672450176</v>
+      </c>
+      <c r="G68">
+        <v>0.02913146224863961</v>
+      </c>
+      <c r="H68">
+        <v>-0.03200737349256667</v>
+      </c>
+      <c r="I68">
+        <v>-0.003140389234782505</v>
+      </c>
+      <c r="J68">
+        <v>0.04829671649094211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06905556150302648</v>
+        <v>-0.06641285004613648</v>
       </c>
       <c r="C69">
-        <v>0.02296818746026586</v>
+        <v>-0.02026271705549616</v>
       </c>
       <c r="D69">
-        <v>-0.02410800234696764</v>
+        <v>-0.008459591444505013</v>
       </c>
       <c r="E69">
-        <v>0.001036424965630592</v>
+        <v>0.03263954188595686</v>
       </c>
       <c r="F69">
-        <v>-0.01245622749979523</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.009816300262511568</v>
+      </c>
+      <c r="G69">
+        <v>0.05690384975013277</v>
+      </c>
+      <c r="H69">
+        <v>0.002211827656607994</v>
+      </c>
+      <c r="I69">
+        <v>-0.00340220358159997</v>
+      </c>
+      <c r="J69">
+        <v>-0.03544553331948944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2937,278 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.0697966674848315</v>
+        <v>-0.08916209558498557</v>
       </c>
       <c r="C71">
-        <v>0.1394527483691188</v>
+        <v>0.2553699678324978</v>
       </c>
       <c r="D71">
-        <v>0.2373124630466131</v>
+        <v>0.009105167955776705</v>
       </c>
       <c r="E71">
-        <v>0.1711189570631629</v>
+        <v>-0.07627748330286362</v>
       </c>
       <c r="F71">
-        <v>0.02360747060198447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02091102821312214</v>
+      </c>
+      <c r="G71">
+        <v>0.04710172453375978</v>
+      </c>
+      <c r="H71">
+        <v>0.01389603916263264</v>
+      </c>
+      <c r="I71">
+        <v>-0.02322484806621837</v>
+      </c>
+      <c r="J71">
+        <v>0.0110319652129766</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1253833965708307</v>
+        <v>-0.132316750997826</v>
       </c>
       <c r="C72">
-        <v>0.07266153093123555</v>
+        <v>-0.05235737363789886</v>
       </c>
       <c r="D72">
-        <v>-0.04885601920423693</v>
+        <v>-0.02161510520162808</v>
       </c>
       <c r="E72">
-        <v>-0.02153830029691155</v>
+        <v>0.09742060226263909</v>
       </c>
       <c r="F72">
-        <v>0.05900240489104876</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.100161829187903</v>
+      </c>
+      <c r="G72">
+        <v>-0.007618481140575273</v>
+      </c>
+      <c r="H72">
+        <v>0.1093682185863158</v>
+      </c>
+      <c r="I72">
+        <v>-0.1820848783737757</v>
+      </c>
+      <c r="J72">
+        <v>0.08056869791354759</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2867025434055648</v>
+        <v>-0.2861070115109241</v>
       </c>
       <c r="C73">
-        <v>0.1119522780823055</v>
+        <v>0.03400738558279563</v>
       </c>
       <c r="D73">
-        <v>0.03905990582570609</v>
+        <v>-0.09278096195501258</v>
       </c>
       <c r="E73">
-        <v>0.1188268626152146</v>
+        <v>-0.01598354690165267</v>
       </c>
       <c r="F73">
-        <v>0.268858885496211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2926489621709948</v>
+      </c>
+      <c r="G73">
+        <v>-0.4188670163945679</v>
+      </c>
+      <c r="H73">
+        <v>0.2902715863890059</v>
+      </c>
+      <c r="I73">
+        <v>-0.1065134724811595</v>
+      </c>
+      <c r="J73">
+        <v>0.008302374250931549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1382665974967462</v>
+        <v>-0.1364099675096797</v>
       </c>
       <c r="C74">
-        <v>0.02304392891720674</v>
+        <v>-0.05677445912439884</v>
       </c>
       <c r="D74">
-        <v>-0.04573675239393069</v>
+        <v>-0.01435814349683339</v>
       </c>
       <c r="E74">
-        <v>-0.01594983280418374</v>
+        <v>0.06291318667546726</v>
       </c>
       <c r="F74">
-        <v>-0.06068213963346875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07659206535150356</v>
+      </c>
+      <c r="G74">
+        <v>-0.005042387249979523</v>
+      </c>
+      <c r="H74">
+        <v>0.007866254429403301</v>
+      </c>
+      <c r="I74">
+        <v>-0.02676743226943185</v>
+      </c>
+      <c r="J74">
+        <v>-0.07811914162557057</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2213649390739779</v>
+        <v>-0.2381217347721669</v>
       </c>
       <c r="C75">
-        <v>0.08007030219193176</v>
+        <v>-0.05684856035173885</v>
       </c>
       <c r="D75">
-        <v>-0.09747470859291775</v>
+        <v>-0.03711226697353699</v>
       </c>
       <c r="E75">
-        <v>-0.01262638469641189</v>
+        <v>0.1339848608287083</v>
       </c>
       <c r="F75">
-        <v>-0.1489172291623722</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1455192552875897</v>
+      </c>
+      <c r="G75">
+        <v>-0.0001401021111915896</v>
+      </c>
+      <c r="H75">
+        <v>-0.01528943562669636</v>
+      </c>
+      <c r="I75">
+        <v>0.04246494221331736</v>
+      </c>
+      <c r="J75">
+        <v>0.01560505130850715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2515498893832765</v>
+        <v>-0.2506551541851749</v>
       </c>
       <c r="C76">
-        <v>0.0995937579144355</v>
+        <v>-0.06001082147953469</v>
       </c>
       <c r="D76">
-        <v>-0.05529298859582987</v>
+        <v>0.00382554631896918</v>
       </c>
       <c r="E76">
-        <v>-0.07036975300110365</v>
+        <v>0.1591561589503127</v>
       </c>
       <c r="F76">
-        <v>-0.1586523904629203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1992354073570432</v>
+      </c>
+      <c r="G76">
+        <v>-0.01890423550140688</v>
+      </c>
+      <c r="H76">
+        <v>-0.05252695639751719</v>
+      </c>
+      <c r="I76">
+        <v>-0.05383874278184991</v>
+      </c>
+      <c r="J76">
+        <v>-0.03947626976109747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1424474448050364</v>
+        <v>-0.1010503140634216</v>
       </c>
       <c r="C77">
-        <v>-0.04632057295836545</v>
+        <v>-0.0828104709244811</v>
       </c>
       <c r="D77">
-        <v>-0.07181361418405352</v>
+        <v>-0.01899614769356929</v>
       </c>
       <c r="E77">
-        <v>-0.009863557100652919</v>
+        <v>-0.04452558421126025</v>
       </c>
       <c r="F77">
-        <v>0.2200965659355548</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1524170549451802</v>
+      </c>
+      <c r="G77">
+        <v>0.1340167173792016</v>
+      </c>
+      <c r="H77">
+        <v>-0.1957017613210628</v>
+      </c>
+      <c r="I77">
+        <v>0.1401537893657896</v>
+      </c>
+      <c r="J77">
+        <v>-0.2063442854837767</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08230781220120303</v>
+        <v>-0.05950401647329993</v>
       </c>
       <c r="C78">
-        <v>-0.02476443075849177</v>
+        <v>-0.06930146141059981</v>
       </c>
       <c r="D78">
-        <v>-0.08285905270006208</v>
+        <v>-0.00642971834008783</v>
       </c>
       <c r="E78">
-        <v>-0.04798040321258914</v>
+        <v>0.0260241672652022</v>
       </c>
       <c r="F78">
-        <v>0.04567501603307735</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06950341691198389</v>
+      </c>
+      <c r="G78">
+        <v>0.02563276056735203</v>
+      </c>
+      <c r="H78">
+        <v>-0.009665853325709255</v>
+      </c>
+      <c r="I78">
+        <v>0.04236436334818928</v>
+      </c>
+      <c r="J78">
+        <v>-0.04194137520966977</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +3225,86 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.1352420324654823</v>
+        <v>-0.1524514424750125</v>
       </c>
       <c r="C80">
-        <v>-0.1126303526179159</v>
+        <v>-0.08889246718915786</v>
       </c>
       <c r="D80">
-        <v>0.4873310396063332</v>
+        <v>0.9700563319177355</v>
       </c>
       <c r="E80">
-        <v>-0.8312333859340594</v>
+        <v>-0.02924583217339017</v>
       </c>
       <c r="F80">
-        <v>0.06172334726457502</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.07036884286216434</v>
+      </c>
+      <c r="G80">
+        <v>-0.01997477342563089</v>
+      </c>
+      <c r="H80">
+        <v>0.04155031401939369</v>
+      </c>
+      <c r="I80">
+        <v>0.01566618179121592</v>
+      </c>
+      <c r="J80">
+        <v>0.09912587566747039</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1644991716016926</v>
+        <v>-0.1784155394579358</v>
       </c>
       <c r="C81">
-        <v>0.05892812447107713</v>
+        <v>-0.04569142676765318</v>
       </c>
       <c r="D81">
-        <v>-0.05589726297445018</v>
+        <v>-0.01003218889340508</v>
       </c>
       <c r="E81">
-        <v>-0.02866116360042075</v>
+        <v>0.1093312398804065</v>
       </c>
       <c r="F81">
-        <v>-0.1478087892947579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1396560483265124</v>
+      </c>
+      <c r="G81">
+        <v>0.007254048697203125</v>
+      </c>
+      <c r="H81">
+        <v>-0.04555633911577444</v>
+      </c>
+      <c r="I81">
+        <v>-0.02187876568293107</v>
+      </c>
+      <c r="J81">
+        <v>-0.01430032294120954</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3321,54 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.05873417494113284</v>
+        <v>-0.0477039441779024</v>
       </c>
       <c r="C83">
-        <v>-0.05018193233257948</v>
+        <v>-0.04558248406257662</v>
       </c>
       <c r="D83">
-        <v>-0.06633732711584896</v>
+        <v>-0.01561171481297926</v>
       </c>
       <c r="E83">
-        <v>-0.007078093548942425</v>
+        <v>-0.01498082634480584</v>
       </c>
       <c r="F83">
-        <v>0.03865063091901749</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.05132860655416245</v>
+      </c>
+      <c r="G83">
+        <v>0.03698608284812248</v>
+      </c>
+      <c r="H83">
+        <v>0.003918461221828369</v>
+      </c>
+      <c r="I83">
+        <v>0.02733617422193541</v>
+      </c>
+      <c r="J83">
+        <v>-0.0566263393935557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3385,374 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.222201198146513</v>
+        <v>-0.2345625767178103</v>
       </c>
       <c r="C85">
-        <v>0.04057743210829418</v>
+        <v>-0.09196086489261715</v>
       </c>
       <c r="D85">
-        <v>-0.08181359126650828</v>
+        <v>-0.02523071545965702</v>
       </c>
       <c r="E85">
-        <v>-0.06003255005017342</v>
+        <v>0.1224763615852773</v>
       </c>
       <c r="F85">
-        <v>-0.1856967847198617</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1891147559404447</v>
+      </c>
+      <c r="G85">
+        <v>-0.009894100420190158</v>
+      </c>
+      <c r="H85">
+        <v>-0.04165854193835967</v>
+      </c>
+      <c r="I85">
+        <v>0.02484568654192262</v>
+      </c>
+      <c r="J85">
+        <v>-0.01766965086639016</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0235450062235798</v>
+        <v>-0.01997111564251505</v>
       </c>
       <c r="C86">
-        <v>-0.009732367973456805</v>
+        <v>-0.03783536390083443</v>
       </c>
       <c r="D86">
-        <v>-0.06000502982735184</v>
+        <v>-0.006830151588085013</v>
       </c>
       <c r="E86">
-        <v>-0.01804956074528898</v>
+        <v>0.01816887384324649</v>
       </c>
       <c r="F86">
-        <v>0.08444240500594763</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0865827510073979</v>
+      </c>
+      <c r="G86">
+        <v>0.06568860251921732</v>
+      </c>
+      <c r="H86">
+        <v>-0.01580068389835327</v>
+      </c>
+      <c r="I86">
+        <v>-0.01180316254320359</v>
+      </c>
+      <c r="J86">
+        <v>-0.09641824307663606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.01414622881196276</v>
+        <v>-0.02382986468942476</v>
       </c>
       <c r="C87">
-        <v>0.02832154038691422</v>
+        <v>0.009072793979790997</v>
       </c>
       <c r="D87">
-        <v>0.04187012326137936</v>
+        <v>0.003467272646305721</v>
       </c>
       <c r="E87">
-        <v>0.02321619078246319</v>
+        <v>-0.004119693520225745</v>
       </c>
       <c r="F87">
-        <v>0.1057207606367672</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1083467715670201</v>
+      </c>
+      <c r="G87">
+        <v>0.008498395211891814</v>
+      </c>
+      <c r="H87">
+        <v>-0.01314649972890237</v>
+      </c>
+      <c r="I87">
+        <v>-0.008396796941297788</v>
+      </c>
+      <c r="J87">
+        <v>-0.08450314160104709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.01586324550179937</v>
+        <v>-0.03202839303708434</v>
       </c>
       <c r="C88">
-        <v>0.007715587115731338</v>
+        <v>0.006512125848876798</v>
       </c>
       <c r="D88">
-        <v>0.004404316596378161</v>
+        <v>0.00524724672201419</v>
       </c>
       <c r="E88">
-        <v>-0.02103470370008251</v>
+        <v>0.01018548237655389</v>
       </c>
       <c r="F88">
-        <v>-0.008750335142539208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.009109104800977394</v>
+      </c>
+      <c r="G88">
+        <v>0.0441948294037881</v>
+      </c>
+      <c r="H88">
+        <v>0.04220090727909497</v>
+      </c>
+      <c r="I88">
+        <v>0.02313738546377924</v>
+      </c>
+      <c r="J88">
+        <v>-0.008128460420847012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.1136307278427727</v>
+        <v>-0.1535681930377533</v>
       </c>
       <c r="C89">
-        <v>0.1373226941748735</v>
+        <v>0.3781841989191739</v>
       </c>
       <c r="D89">
-        <v>0.2656292333842851</v>
+        <v>-0.007602343699883667</v>
       </c>
       <c r="E89">
-        <v>0.1861264950587959</v>
+        <v>-0.1027122827499074</v>
       </c>
       <c r="F89">
-        <v>0.007827261911803132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.004709781113237044</v>
+      </c>
+      <c r="G89">
+        <v>0.07492002600273553</v>
+      </c>
+      <c r="H89">
+        <v>-0.06055662132282445</v>
+      </c>
+      <c r="I89">
+        <v>0.06621921871269032</v>
+      </c>
+      <c r="J89">
+        <v>0.01810509325889338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.09610892035308362</v>
+        <v>-0.1092276732598516</v>
       </c>
       <c r="C90">
-        <v>0.1348340432831747</v>
+        <v>0.3147640260400119</v>
       </c>
       <c r="D90">
-        <v>0.2612745232784878</v>
+        <v>0.01157274453888054</v>
       </c>
       <c r="E90">
-        <v>0.1192817692019646</v>
+        <v>-0.08686218885227566</v>
       </c>
       <c r="F90">
-        <v>0.00552999693475121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.02215195788625516</v>
+      </c>
+      <c r="G90">
+        <v>0.0440222922447421</v>
+      </c>
+      <c r="H90">
+        <v>-0.04411553322443822</v>
+      </c>
+      <c r="I90">
+        <v>0.04677683232924493</v>
+      </c>
+      <c r="J90">
+        <v>0.03873610594295097</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2830375553965315</v>
+        <v>-0.2787596960430391</v>
       </c>
       <c r="C91">
-        <v>0.05097953316482663</v>
+        <v>-0.1034603146584319</v>
       </c>
       <c r="D91">
-        <v>-0.1181008882444284</v>
+        <v>-0.03167120136621122</v>
       </c>
       <c r="E91">
-        <v>-0.06881644078007093</v>
+        <v>0.1334489488331753</v>
       </c>
       <c r="F91">
-        <v>-0.2521858319083045</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2550231599663023</v>
+      </c>
+      <c r="G91">
+        <v>-0.007663714727837353</v>
+      </c>
+      <c r="H91">
+        <v>-0.08487670366497001</v>
+      </c>
+      <c r="I91">
+        <v>0.008895927181227664</v>
+      </c>
+      <c r="J91">
+        <v>-0.005740002361485346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.1371255802474948</v>
+        <v>-0.1957909877372592</v>
       </c>
       <c r="C92">
-        <v>0.0980102279964578</v>
+        <v>0.3220998281899053</v>
       </c>
       <c r="D92">
-        <v>0.2963427051080814</v>
+        <v>0.03022937248846734</v>
       </c>
       <c r="E92">
-        <v>0.1222467898493356</v>
+        <v>-0.09381892783721607</v>
       </c>
       <c r="F92">
-        <v>-0.02629900720469221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.0899531028909203</v>
+      </c>
+      <c r="G92">
+        <v>0.2060595267336993</v>
+      </c>
+      <c r="H92">
+        <v>-0.06757468563010734</v>
+      </c>
+      <c r="I92">
+        <v>-0.07313205995264183</v>
+      </c>
+      <c r="J92">
+        <v>-0.2046813918908525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.09385615169762432</v>
+        <v>-0.1341244356839478</v>
       </c>
       <c r="C93">
-        <v>0.1316059753948754</v>
+        <v>0.3797355540395534</v>
       </c>
       <c r="D93">
-        <v>0.3238345665966369</v>
+        <v>0.006350915878042643</v>
       </c>
       <c r="E93">
-        <v>0.1644274049461848</v>
+        <v>-0.1383187295507179</v>
       </c>
       <c r="F93">
-        <v>-0.05351924992752273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.04294285165602289</v>
+      </c>
+      <c r="G93">
+        <v>0.03600034066310229</v>
+      </c>
+      <c r="H93">
+        <v>0.02101619963126863</v>
+      </c>
+      <c r="I93">
+        <v>0.01361948879381663</v>
+      </c>
+      <c r="J93">
+        <v>0.06312539702500614</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2680359916368203</v>
+        <v>-0.2959637316435876</v>
       </c>
       <c r="C94">
-        <v>0.1003902498926457</v>
+        <v>-0.01970579922068146</v>
       </c>
       <c r="D94">
-        <v>-0.002474811128443129</v>
+        <v>-0.04053329871866968</v>
       </c>
       <c r="E94">
-        <v>-0.01086991450194152</v>
+        <v>0.1442142469519344</v>
       </c>
       <c r="F94">
-        <v>-0.2343508982110061</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2784549790494881</v>
+      </c>
+      <c r="G94">
+        <v>-0.09473427414036757</v>
+      </c>
+      <c r="H94">
+        <v>-0.2118431917691159</v>
+      </c>
+      <c r="I94">
+        <v>-0.03041406986764166</v>
+      </c>
+      <c r="J94">
+        <v>-0.01536065667613183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1452855000442889</v>
+        <v>-0.122284025366751</v>
       </c>
       <c r="C95">
-        <v>-0.02473458352023154</v>
+        <v>-0.08503519853618431</v>
       </c>
       <c r="D95">
-        <v>-0.2038168921092008</v>
+        <v>-0.09034551659401789</v>
       </c>
       <c r="E95">
-        <v>-0.03740075830453871</v>
+        <v>0.05707741222328777</v>
       </c>
       <c r="F95">
-        <v>-0.4354699153774637</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08599424211001938</v>
+      </c>
+      <c r="G95">
+        <v>0.4486494850164781</v>
+      </c>
+      <c r="H95">
+        <v>0.613283321827318</v>
+      </c>
+      <c r="I95">
+        <v>0.4059748588756912</v>
+      </c>
+      <c r="J95">
+        <v>0.3787255165717081</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3769,22 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3801,54 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2191146033682491</v>
+        <v>-0.2231758758246606</v>
       </c>
       <c r="C98">
-        <v>0.05488022447930928</v>
+        <v>0.03427680116160439</v>
       </c>
       <c r="D98">
-        <v>0.007346723836955924</v>
+        <v>-0.06461746135199786</v>
       </c>
       <c r="E98">
-        <v>0.09131643571224676</v>
+        <v>-0.0180097567367335</v>
       </c>
       <c r="F98">
-        <v>0.09032792742805437</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2116305619466799</v>
+      </c>
+      <c r="G98">
+        <v>-0.2864146970845214</v>
+      </c>
+      <c r="H98">
+        <v>0.2284892180310019</v>
+      </c>
+      <c r="I98">
+        <v>-0.08907384030063192</v>
+      </c>
+      <c r="J98">
+        <v>0.03552008584689976</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3865,22 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3897,145 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.003232619004620004</v>
+        <v>-0.01399148604438904</v>
       </c>
       <c r="C101">
-        <v>0.01379192906902963</v>
+        <v>-0.02600931386452846</v>
       </c>
       <c r="D101">
-        <v>-0.06410211256324186</v>
+        <v>-0.0008659763940014153</v>
       </c>
       <c r="E101">
-        <v>-0.04139101162310797</v>
+        <v>0.03689138536643207</v>
       </c>
       <c r="F101">
-        <v>0.02573710710129317</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07485254171816901</v>
+      </c>
+      <c r="G101">
+        <v>0.0857718789458327</v>
+      </c>
+      <c r="H101">
+        <v>-0.07653518968653715</v>
+      </c>
+      <c r="I101">
+        <v>-0.0107475753863779</v>
+      </c>
+      <c r="J101">
+        <v>0.1026241435991811</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.08722237861225055</v>
+        <v>-0.1099716701488992</v>
       </c>
       <c r="C102">
-        <v>0.01567370816240785</v>
+        <v>-0.04032435103986753</v>
       </c>
       <c r="D102">
-        <v>-0.0448641289569307</v>
+        <v>-0.004340135843684932</v>
       </c>
       <c r="E102">
-        <v>-0.04293592428244878</v>
+        <v>0.05611776589499698</v>
       </c>
       <c r="F102">
-        <v>-0.08928418634709118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.107493983151138</v>
+      </c>
+      <c r="G102">
+        <v>-0.008201630116462234</v>
+      </c>
+      <c r="H102">
+        <v>-0.02949995048197063</v>
+      </c>
+      <c r="I102">
+        <v>0.03649225972843144</v>
+      </c>
+      <c r="J102">
+        <v>0.003855691376122386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01682817985421065</v>
+        <v>-0.02521328644191427</v>
       </c>
       <c r="C103">
-        <v>0.008751306952672315</v>
+        <v>-0.009506008168169502</v>
       </c>
       <c r="D103">
-        <v>-0.003407289473366397</v>
+        <v>0.007092923249172579</v>
       </c>
       <c r="E103">
-        <v>-0.006478195088629437</v>
+        <v>0.01754059873635909</v>
       </c>
       <c r="F103">
-        <v>-0.02004086218076186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01961429915836551</v>
+      </c>
+      <c r="G103">
+        <v>0.01129361207680916</v>
+      </c>
+      <c r="H103">
+        <v>-0.01014281917023386</v>
+      </c>
+      <c r="I103">
+        <v>0.01354616564069395</v>
+      </c>
+      <c r="J103">
+        <v>-0.01316561694843457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.004372098085983945</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.02928493242766769</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.02102801679072016</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.05549103984723954</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.0001306061019836416</v>
+      </c>
+      <c r="G104">
+        <v>-0.4205401689666369</v>
+      </c>
+      <c r="H104">
+        <v>-0.3042556036251789</v>
+      </c>
+      <c r="I104">
+        <v>0.7498780352744078</v>
+      </c>
+      <c r="J104">
+        <v>0.2358388678707361</v>
       </c>
     </row>
   </sheetData>
